--- a/KiCAD/STM32_FlightController_Rev2/manufacturing/STM32_CPL.xlsx
+++ b/KiCAD/STM32_FlightController_Rev2/manufacturing/STM32_CPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coven\OneDrive\Documents\GitHub\STM32_FlightController\KiCAD\STM32_FlightController_Rev2\manufacturing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B918D64-FBE1-483A-8CB0-3F05F9BC489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7161AC-99FA-4E2C-A168-B4B5FF7A8AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10335" yWindow="1785" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
